--- a/teamNamesSR.xlsx
+++ b/teamNamesSR.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macia\Documents\Data_Science\Sports_Predictive_Modeling\NCAA_Basketball\NCAA_Basketball_2024_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macia\Documents\Data_Science\Sports_Predictive_Modeling\NCAA_Basketball\NCAA_Basketball_2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12101F-764C-4B86-A451-BBDDCD88277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8708D-71D1-455E-977D-FB90967B0A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$354</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="579">
   <si>
     <t>Abilene Christian</t>
   </si>
@@ -1664,15 +1663,9 @@
     <t>KaggleID</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>AR-Pine Bluff</t>
   </si>
   <si>
-    <t>Bellarmine</t>
-  </si>
-  <si>
     <t>Bethune</t>
   </si>
   <si>
@@ -1691,9 +1684,6 @@
     <t>E Tennessee St</t>
   </si>
   <si>
-    <t>E Texas A&amp;M</t>
-  </si>
-  <si>
     <t>FGCU</t>
   </si>
   <si>
@@ -1703,15 +1693,9 @@
     <t>Hawai'i</t>
   </si>
   <si>
-    <t>Hou Christian</t>
-  </si>
-  <si>
     <t>Illinois Chicago</t>
   </si>
   <si>
-    <t>IU Indy</t>
-  </si>
-  <si>
     <t>J Madison</t>
   </si>
   <si>
@@ -1721,12 +1705,6 @@
     <t>Kent St</t>
   </si>
   <si>
-    <t>Le Moyne</t>
-  </si>
-  <si>
-    <t>Lindenwood</t>
-  </si>
-  <si>
     <t>LIU</t>
   </si>
   <si>
@@ -1736,12 +1714,6 @@
     <t>McNeese</t>
   </si>
   <si>
-    <t>Mercyhurst</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
     <t>Miami</t>
   </si>
   <si>
@@ -1766,15 +1738,6 @@
     <t>Nicholls</t>
   </si>
   <si>
-    <t>Purdue FW</t>
-  </si>
-  <si>
-    <t>Queens</t>
-  </si>
-  <si>
-    <t>S Indiana</t>
-  </si>
-  <si>
     <t>Sacramento St</t>
   </si>
   <si>
@@ -1787,15 +1750,6 @@
     <t>Sam Houston</t>
   </si>
   <si>
-    <t>St Thomas</t>
-  </si>
-  <si>
-    <t>Stonehill</t>
-  </si>
-  <si>
-    <t>Tarleton St</t>
-  </si>
-  <si>
     <t>Tenn Tech</t>
   </si>
   <si>
@@ -1808,9 +1762,6 @@
     <t>The Citadel</t>
   </si>
   <si>
-    <t>UCSD</t>
-  </si>
-  <si>
     <t>UL Monroe</t>
   </si>
   <si>
@@ -1821,12 +1772,6 @@
   </si>
   <si>
     <t>UT Rio Grande</t>
-  </si>
-  <si>
-    <t>Utah Tech</t>
-  </si>
-  <si>
-    <t>W Georgia</t>
   </si>
   <si>
     <t>CoversNames</t>
@@ -2198,8 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I333" sqref="I333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2218,7 +2164,7 @@
         <v>433</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>540</v>
@@ -2497,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D17">
         <v>1114</v>
@@ -2622,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D24">
         <v>1126</v>
@@ -2978,7 +2924,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D45">
         <v>1146</v>
@@ -2995,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D46">
         <v>1148</v>
@@ -3117,7 +3063,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D53">
         <v>1154</v>
@@ -3202,7 +3148,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D58">
         <v>1158</v>
@@ -3449,7 +3395,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D72">
         <v>1178</v>
@@ -3634,7 +3580,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D83">
         <v>1190</v>
@@ -3752,7 +3698,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D90">
         <v>1195</v>
@@ -3939,7 +3885,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D101">
         <v>1204</v>
@@ -4108,7 +4054,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D111">
         <v>1218</v>
@@ -4477,7 +4423,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D132">
         <v>1241</v>
@@ -4551,7 +4497,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D136">
         <v>1245</v>
@@ -4705,7 +4651,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D145">
         <v>1254</v>
@@ -4790,7 +4736,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D150">
         <v>1419</v>
@@ -4827,7 +4773,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D152">
         <v>1260</v>
@@ -5022,7 +4968,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D163">
         <v>1270</v>
@@ -5076,7 +5022,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D166">
         <v>1274</v>
@@ -5218,7 +5164,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D174">
         <v>1290</v>
@@ -5542,7 +5488,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D193">
         <v>1311</v>
@@ -5593,7 +5539,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D196">
         <v>1466</v>
@@ -5695,7 +5641,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D202">
         <v>1317</v>
@@ -6419,7 +6365,7 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D244">
         <v>1170</v>
@@ -6507,7 +6453,7 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D249">
         <v>1358</v>
@@ -6981,7 +6927,7 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D277">
         <v>1386</v>
@@ -6998,7 +6944,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D278">
         <v>1389</v>
@@ -7168,7 +7114,7 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D288">
         <v>1399</v>
@@ -7219,7 +7165,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D291">
         <v>1394</v>
@@ -7236,7 +7182,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D292">
         <v>1411</v>
@@ -7304,7 +7250,7 @@
         <v>288</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D296">
         <v>1410</v>
@@ -7531,7 +7477,7 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D309">
         <v>1227</v>
@@ -7565,7 +7511,7 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D311">
         <v>1262</v>
@@ -7599,7 +7545,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D313">
         <v>1282</v>
@@ -7636,7 +7582,7 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D315">
         <v>1421</v>
@@ -7653,7 +7599,7 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D316">
         <v>1422</v>
@@ -7670,7 +7616,7 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D317">
         <v>1423</v>
@@ -7812,7 +7758,7 @@
         <v>318</v>
       </c>
       <c r="B325" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="D325">
         <v>1404</v>
@@ -8415,8 +8361,11 @@
       <sortCondition ref="A1:A354"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B127" r:id="rId1" display="https://www.teamrankings.com/ncaa-basketball/team/iowa-state-cyclones" xr:uid="{2DECB488-6859-4A45-92AE-136E4F3CCFBF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8424,7 +8373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBA0962-9B57-4E6C-9E9A-EFA20B1432D9}">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
@@ -14680,8394 +14629,4 @@
   <autoFilter ref="B1:E367" xr:uid="{95E4AB52-C027-4084-956D-7F54E4CF1553}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1E67E7-3585-4A15-BC2D-475364649F0C}">
-  <dimension ref="A2:G365"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.434</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>543</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>544</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.437</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.443</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="F35" t="s">
-        <v>541</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>545</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>546</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>456</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.438</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>547</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>460</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.248</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.433</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>361</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>362</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>363</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>463</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D61" s="4">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>365</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>464</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>366</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D70" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>548</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D71" s="4">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D74" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E74" s="4">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>367</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0.253</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>368</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E77" t="s">
-        <v>541</v>
-      </c>
-      <c r="F77" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>369</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="E78" t="s">
-        <v>541</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>370</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0.308</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>549</v>
-      </c>
-      <c r="B80" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="D80" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>550</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D81" s="4">
-        <v>0.219</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>466</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D82" s="4">
-        <v>0.158</v>
-      </c>
-      <c r="E82" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F83" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E84" s="4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>371</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D86" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0.224</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>551</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D87" s="4">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E87" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D88" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F88" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G88" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E89" t="s">
-        <v>541</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="4">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D90" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F90" s="4">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>372</v>
-      </c>
-      <c r="B91" s="4">
-        <v>0.218</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0.183</v>
-      </c>
-      <c r="D91" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="E91" s="4">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="F91" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>373</v>
-      </c>
-      <c r="B92" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D92" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E92" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="F92" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="D93" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="E93" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F93" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>374</v>
-      </c>
-      <c r="B94" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D94" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>470</v>
-      </c>
-      <c r="B96" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D96" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E96" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E97" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="F97" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="C98" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E98" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="F98" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E100" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G100" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>552</v>
-      </c>
-      <c r="B101" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>375</v>
-      </c>
-      <c r="B102" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="C102" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D102" s="4">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="G102" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E103" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C104" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D104" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E104" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C105" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="D105" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F105" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="C106" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="D106" s="4">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="E106" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F106" s="4">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="D108" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E108" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="C109" s="4">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D109" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>553</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C110" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D110" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E110" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F110" t="s">
-        <v>541</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C112" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D112" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E112" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F112" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="C113" s="4">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D113" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>554</v>
-      </c>
-      <c r="B114" s="4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="C114" s="4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D114" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E114" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F114" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G114" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D115" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E115" s="4">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="F115" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G115" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="C116" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F116" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G116" s="4">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="C117" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E117" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F117" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>474</v>
-      </c>
-      <c r="B118" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C118" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D118" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F118" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="G118" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="C119" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D119" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F119" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G119" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>555</v>
-      </c>
-      <c r="B120" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F120" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>377</v>
-      </c>
-      <c r="B121" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C121" s="4">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D121" s="4">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E121" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F121" s="4">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G121" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="C122" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E122" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F122" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="G122" s="4">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D123" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G123" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>378</v>
-      </c>
-      <c r="B124" s="4">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="C124" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D124" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="F124" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="G124" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C125" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D125" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E125" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F125" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C126" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D126" s="4">
-        <v>0.192</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F126" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>476</v>
-      </c>
-      <c r="B127" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="C127" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D127" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G127" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
-        <v>556</v>
-      </c>
-      <c r="B128" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="C128" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D128" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="E128" s="4">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F128" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="G128" s="4">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>557</v>
-      </c>
-      <c r="B129" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="C129" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="D129" s="4">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="E129" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F129" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G129" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>380</v>
-      </c>
-      <c r="B130" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C130" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D130" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F130" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C131" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D131" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E131" s="4">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="F131" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="G131" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
-        <v>477</v>
-      </c>
-      <c r="B132" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C132" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E132" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F132" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="G132" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="C133" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D133" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E133" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F133" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>558</v>
-      </c>
-      <c r="B134" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C134" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D134" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F134" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G134" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>381</v>
-      </c>
-      <c r="B135" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D135" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E135" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="F135" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G135" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
-        <v>382</v>
-      </c>
-      <c r="B136" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="C136" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D136" s="4">
-        <v>0.438</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0.439</v>
-      </c>
-      <c r="F136" s="4">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="G136" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>559</v>
-      </c>
-      <c r="B137" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C137" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D137" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E137" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F137" s="4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="G137" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" s="4">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="C138" s="4">
-        <v>0.438</v>
-      </c>
-      <c r="D138" s="4">
-        <v>0.436</v>
-      </c>
-      <c r="E138" s="4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F138" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G138" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C139" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D139" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E139" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F139" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="G139" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C140" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="D140" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E140" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="F140" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G140" s="4">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C141" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="D141" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F141" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G141" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>560</v>
-      </c>
-      <c r="B142" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C142" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D142" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G142" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D143" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E143" t="s">
-        <v>541</v>
-      </c>
-      <c r="F143" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="G143" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D144" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E144" t="s">
-        <v>541</v>
-      </c>
-      <c r="F144" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G144" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>561</v>
-      </c>
-      <c r="B145" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="C145" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D145" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F145" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="G145" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C146" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D146" s="4">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E146" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F146" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G146" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="C147" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D147" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="G147" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
-        <v>562</v>
-      </c>
-      <c r="B148" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C148" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D148" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E148" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="G148" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>480</v>
-      </c>
-      <c r="B149" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C149" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D149" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E149" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F149" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="G149" s="4">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>145</v>
-      </c>
-      <c r="B150" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C150" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="D150" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E150" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G150" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C151" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="D151" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E151" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="F151" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G151" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="C152" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D152" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F152" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G152" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="C153" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D153" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="E153" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G153" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
-        <v>563</v>
-      </c>
-      <c r="B154" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="C154" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="D154" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E154" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F154" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G154" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>483</v>
-      </c>
-      <c r="B155" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C155" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D155" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E155" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F155" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G155" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>383</v>
-      </c>
-      <c r="B156" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C156" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="D156" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E156" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="F156" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="G156" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C157" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="D157" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E157" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F157" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="G157" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>154</v>
-      </c>
-      <c r="B158" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C158" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D158" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F158" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G158" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C159" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D159" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E159" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F159" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="G159" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C160" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D160" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E160" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F160" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="G160" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C161" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D161" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="E161" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F161" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G161" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="C162" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="D162" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E162" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>541</v>
-      </c>
-      <c r="G162" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C163" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D163" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E163" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G163" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>384</v>
-      </c>
-      <c r="B164" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C164" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D164" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F164" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="G164" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>564</v>
-      </c>
-      <c r="B165" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="C165" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="D165" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E165" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F165" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="G165" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>162</v>
-      </c>
-      <c r="B166" s="4">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="C166" s="4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D166" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E166" s="4">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="F166" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="G166" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>163</v>
-      </c>
-      <c r="B167" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="C167" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D167" s="4">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F167" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="G167" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>565</v>
-      </c>
-      <c r="B168" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C168" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="D168" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E168" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F168" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>566</v>
-      </c>
-      <c r="B169" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C169" s="4">
-        <v>0.187</v>
-      </c>
-      <c r="D169" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E169" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="F169" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="G169" s="4">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>567</v>
-      </c>
-      <c r="B170" s="4">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="C170" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D170" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E170" s="4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F170" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G170" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>489</v>
-      </c>
-      <c r="B171" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="C171" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="D171" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E171" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="F171" s="4">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="G171" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="C172" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D172" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E172" s="4">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="F172" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="G172" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>386</v>
-      </c>
-      <c r="B173" s="4">
-        <v>0.221</v>
-      </c>
-      <c r="C173" s="4">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="D173" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E173" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F173" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="G173" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>387</v>
-      </c>
-      <c r="B174" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D174" s="4">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E174" s="4">
-        <v>0.158</v>
-      </c>
-      <c r="F174" s="4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="G174" s="4">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>169</v>
-      </c>
-      <c r="B175" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C175" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D175" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E175" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="F175" s="4">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G175" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>170</v>
-      </c>
-      <c r="B176" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C176" s="4">
-        <v>0.218</v>
-      </c>
-      <c r="D176" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E176" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G176" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" s="4">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C177" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D177" s="4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F177" s="4">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="G177" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>388</v>
-      </c>
-      <c r="B178" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C178" s="4">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D178" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E178" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F178" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="G178" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>490</v>
-      </c>
-      <c r="B179" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C179" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D179" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E179" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F179" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G179" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="C180" s="4">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D180" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E180" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F180" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G180" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>389</v>
-      </c>
-      <c r="B181" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="C181" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D181" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E181" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="F181" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G181" s="4">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>175</v>
-      </c>
-      <c r="B182" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C182" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D182" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E182" t="s">
-        <v>541</v>
-      </c>
-      <c r="F182" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="G182" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>176</v>
-      </c>
-      <c r="B183" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="C183" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D183" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E183" t="s">
-        <v>541</v>
-      </c>
-      <c r="F183" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G183" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>390</v>
-      </c>
-      <c r="B184" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="C184" s="4">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D184" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F184" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G184" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
-        <v>391</v>
-      </c>
-      <c r="B185" s="4">
-        <v>0.215</v>
-      </c>
-      <c r="C185" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D185" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="E185" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="F185" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G185" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>392</v>
-      </c>
-      <c r="B186" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C186" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D186" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E186" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="F186" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G186" s="4">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
-        <v>495</v>
-      </c>
-      <c r="B187" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="C187" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D187" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E187" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="F187" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="G187" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
-        <v>393</v>
-      </c>
-      <c r="B188" s="4">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C188" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D188" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E188" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F188" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G188" s="4">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
-        <v>569</v>
-      </c>
-      <c r="B189" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="C189" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="D189" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E189" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="F189" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="G189" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
-        <v>394</v>
-      </c>
-      <c r="B190" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C190" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D190" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E190" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F190" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G190" s="4">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
-        <v>395</v>
-      </c>
-      <c r="B191" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C191" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="D191" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F191" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G191" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
-        <v>396</v>
-      </c>
-      <c r="B192" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="C192" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D192" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="E192" s="4">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F192" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="G192" s="4">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
-        <v>397</v>
-      </c>
-      <c r="B193" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C193" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="D193" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E193" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="F193" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G193" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
-        <v>398</v>
-      </c>
-      <c r="B194" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="C194" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D194" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E194" s="4">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="F194" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="G194" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
-        <v>399</v>
-      </c>
-      <c r="B195" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="C195" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D195" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E195" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F195" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G195" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
-        <v>400</v>
-      </c>
-      <c r="B196" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C196" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D196" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E196" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="F196" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G196" s="4">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>570</v>
-      </c>
-      <c r="B197" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C197" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D197" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E197" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F197" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G197" s="4">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>182</v>
-      </c>
-      <c r="B198" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="C198" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D198" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E198" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F198" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G198" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>401</v>
-      </c>
-      <c r="B199" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C199" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D199" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E199" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F199" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G199" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>571</v>
-      </c>
-      <c r="B200" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C200" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="D200" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F200" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G200" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>402</v>
-      </c>
-      <c r="B201" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="C201" s="4">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="D201" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E201" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F201" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="G201" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
-        <v>572</v>
-      </c>
-      <c r="B202" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="D202" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E202" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="F202" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G202" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
-        <v>183</v>
-      </c>
-      <c r="B203" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C203" s="4">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D203" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="E203" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G203" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
-        <v>573</v>
-      </c>
-      <c r="B204" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="C204" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="D204" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="E204" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F204" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="G204" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>184</v>
-      </c>
-      <c r="B205" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="C205" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D205" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E205" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="F205" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G205" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>185</v>
-      </c>
-      <c r="B206" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="C206" s="4">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="D206" s="4">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="E206" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="F206" s="4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="G206" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>186</v>
-      </c>
-      <c r="B207" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C207" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D207" s="4">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E207" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F207" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="G207" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
-        <v>187</v>
-      </c>
-      <c r="B208" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C208" s="4">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D208" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E208" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F208" s="4">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="G208" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
-        <v>499</v>
-      </c>
-      <c r="B209" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C209" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D209" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E209" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="F209" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="G209" s="4">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
-        <v>189</v>
-      </c>
-      <c r="B210" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C210" s="4">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D210" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E210" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F210" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="G210" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
-        <v>190</v>
-      </c>
-      <c r="B211" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="C211" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D211" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F211" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="G211" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>574</v>
-      </c>
-      <c r="B212" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="C212" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D212" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="E212" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F212" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G212" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
-        <v>192</v>
-      </c>
-      <c r="B213" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C213" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D213" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E213" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="F213" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G213" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
-        <v>404</v>
-      </c>
-      <c r="B214" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="C214" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D214" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E214" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="F214" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G214" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
-        <v>500</v>
-      </c>
-      <c r="B215" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C215" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D215" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="E215" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F215" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G215" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
-        <v>197</v>
-      </c>
-      <c r="B216" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C216" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D216" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E216" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F216" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="G216" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
-        <v>201</v>
-      </c>
-      <c r="B217" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="C217" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D217" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="E217" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F217" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="G217" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>207</v>
-      </c>
-      <c r="B218" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C218" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D218" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="E218" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F218" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G218" s="4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
-        <v>209</v>
-      </c>
-      <c r="B219" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="C219" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D219" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E219" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="F219" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="G219" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
-        <v>405</v>
-      </c>
-      <c r="B220" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C220" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D220" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="E220" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="F220" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="G220" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
-        <v>210</v>
-      </c>
-      <c r="B221" s="4">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="C221" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D221" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E221" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F221" s="4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G221" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
-        <v>211</v>
-      </c>
-      <c r="B222" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="C222" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="D222" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="E222" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F222" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="G222" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A223" t="s">
-        <v>502</v>
-      </c>
-      <c r="B223" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="C223" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D223" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="E223" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F223" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="G223" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A224" t="s">
-        <v>213</v>
-      </c>
-      <c r="B224" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C224" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D224" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="E224" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G224" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A225" t="s">
-        <v>406</v>
-      </c>
-      <c r="B225" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C225" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D225" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E225" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F225" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G225" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
-        <v>215</v>
-      </c>
-      <c r="B226" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="C226" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D226" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="E226" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="F226" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G226" s="4">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
-        <v>217</v>
-      </c>
-      <c r="B227" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C227" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D227" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="E227" t="s">
-        <v>541</v>
-      </c>
-      <c r="F227" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G227" s="4">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
-        <v>218</v>
-      </c>
-      <c r="B228" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C228" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D228" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F228" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G228" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
-        <v>219</v>
-      </c>
-      <c r="B229" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C229" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="D229" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E229" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F229" s="4">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="G229" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
-        <v>407</v>
-      </c>
-      <c r="B230" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C230" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D230" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E230" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G230" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A231" t="s">
-        <v>221</v>
-      </c>
-      <c r="B231" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C231" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D231" s="4">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E231" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F231" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G231" s="4">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A232" t="s">
-        <v>222</v>
-      </c>
-      <c r="B232" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C232" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D232" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E232" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F232" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G232" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
-        <v>504</v>
-      </c>
-      <c r="B233" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C233" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="D233" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="E233" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="F233" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G233" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
-        <v>224</v>
-      </c>
-      <c r="B234" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="C234" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="D234" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E234" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="F234" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G234" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A235" t="s">
-        <v>408</v>
-      </c>
-      <c r="B235" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C235" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D235" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E235" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F235" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G235" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A236" t="s">
-        <v>226</v>
-      </c>
-      <c r="B236" s="4">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="C236" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D236" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E236" s="4">
-        <v>0.161</v>
-      </c>
-      <c r="F236" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G236" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A237" t="s">
-        <v>409</v>
-      </c>
-      <c r="B237" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="C237" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="D237" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E237" t="s">
-        <v>541</v>
-      </c>
-      <c r="F237" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="G237" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A238" t="s">
-        <v>435</v>
-      </c>
-      <c r="B238" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C238" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="D238" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F238" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G238" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A239" t="s">
-        <v>228</v>
-      </c>
-      <c r="B239" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="C239" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D239" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E239" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F239" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="G239" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A240" t="s">
-        <v>229</v>
-      </c>
-      <c r="B240" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="C240" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D240" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E240" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F240" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="G240" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A241" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="C241" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="D241" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E241" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G241" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
-        <v>231</v>
-      </c>
-      <c r="B242" s="4">
-        <v>0.438</v>
-      </c>
-      <c r="C242" s="4">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D242" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E242" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F242" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G242" s="4">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A243" t="s">
-        <v>575</v>
-      </c>
-      <c r="B243" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C243" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="D243" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E243" s="4">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F243" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="G243" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
-        <v>576</v>
-      </c>
-      <c r="B244" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="C244" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D244" s="4">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E244" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F244" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="G244" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A245" t="s">
-        <v>233</v>
-      </c>
-      <c r="B245" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C245" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D245" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E245" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="F245" s="4">
-        <v>0.253</v>
-      </c>
-      <c r="G245" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
-        <v>234</v>
-      </c>
-      <c r="B246" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="C246" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D246" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E246" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="F246" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G246" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A247" t="s">
-        <v>235</v>
-      </c>
-      <c r="B247" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C247" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="D247" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E247" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G247" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A248" t="s">
-        <v>236</v>
-      </c>
-      <c r="B248" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C248" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="D248" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E248" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="F248" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G248" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A249" t="s">
-        <v>237</v>
-      </c>
-      <c r="B249" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C249" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="D249" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E249" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F249" s="4">
-        <v>0.184</v>
-      </c>
-      <c r="G249" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
-        <v>238</v>
-      </c>
-      <c r="B250" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="C250" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D250" s="4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F250" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="G250" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A251" t="s">
-        <v>239</v>
-      </c>
-      <c r="B251" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C251" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="D251" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E251" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="F251" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G251" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A252" t="s">
-        <v>240</v>
-      </c>
-      <c r="B252" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="C252" s="4">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D252" s="4">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E252" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G252" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A253" t="s">
-        <v>410</v>
-      </c>
-      <c r="B253" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="C253" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D253" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E253" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="F253" s="4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G253" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
-        <v>505</v>
-      </c>
-      <c r="B254" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="C254" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D254" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F254" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="G254" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A255" t="s">
-        <v>411</v>
-      </c>
-      <c r="B255" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="C255" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D255" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E255" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="F255" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G255" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A256" t="s">
-        <v>412</v>
-      </c>
-      <c r="B256" s="4">
-        <v>0.313</v>
-      </c>
-      <c r="C256" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="D256" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E256" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F256" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G256" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A257" t="s">
-        <v>413</v>
-      </c>
-      <c r="B257" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C257" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D257" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E257" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F257" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G257" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
-        <v>577</v>
-      </c>
-      <c r="B258" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="C258" s="4">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D258" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E258" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F258" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G258" s="4">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A259" t="s">
-        <v>414</v>
-      </c>
-      <c r="B259" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C259" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="D259" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E259" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F259" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G259" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A260" t="s">
-        <v>578</v>
-      </c>
-      <c r="B260" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C260" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D260" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E260" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F260" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G260" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A261" t="s">
-        <v>242</v>
-      </c>
-      <c r="B261" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="C261" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="E261" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F261" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="G261" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
-        <v>579</v>
-      </c>
-      <c r="B262" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C262" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D262" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E262" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F262" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G262" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A263" t="s">
-        <v>244</v>
-      </c>
-      <c r="B263" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="C263" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="D263" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E263" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="F263" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="G263" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A264" t="s">
-        <v>245</v>
-      </c>
-      <c r="B264" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C264" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D264" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="E264" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="F264" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="G264" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A265" t="s">
-        <v>580</v>
-      </c>
-      <c r="B265" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="C265" s="4">
-        <v>0.378</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E265" t="s">
-        <v>541</v>
-      </c>
-      <c r="F265" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="G265" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
-        <v>581</v>
-      </c>
-      <c r="B266" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="C266" s="4">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D266" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F266" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="G266" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A267" t="s">
-        <v>247</v>
-      </c>
-      <c r="B267" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="C267" s="4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D267" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="E267" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F267" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G267" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A268" t="s">
-        <v>248</v>
-      </c>
-      <c r="B268" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C268" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="D268" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E268" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F268" t="s">
-        <v>541</v>
-      </c>
-      <c r="G268" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A269" t="s">
-        <v>415</v>
-      </c>
-      <c r="B269" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C269" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E269" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G269" s="4">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A270" t="s">
-        <v>250</v>
-      </c>
-      <c r="B270" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C270" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="D270" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="E270" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="F270" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="G270" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A271" t="s">
-        <v>416</v>
-      </c>
-      <c r="B271" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="C271" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D271" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="E271" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="F271" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G271" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A272" t="s">
-        <v>252</v>
-      </c>
-      <c r="B272" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="C272" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="E272" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F272" s="4">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G272" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A273" t="s">
-        <v>418</v>
-      </c>
-      <c r="B273" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="C273" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D273" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="E273" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F273" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G273" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
-        <v>419</v>
-      </c>
-      <c r="B274" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="C274" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D274" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F274" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G274" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A275" t="s">
-        <v>508</v>
-      </c>
-      <c r="B275" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C275" s="4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D275" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E275" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="F275" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="G275" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A276" t="s">
-        <v>254</v>
-      </c>
-      <c r="B276" s="4">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="C276" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D276" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E276" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F276" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G276" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
-        <v>255</v>
-      </c>
-      <c r="B277" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="C277" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D277" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E277" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="F277" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="G277" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A278" t="s">
-        <v>509</v>
-      </c>
-      <c r="B278" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C278" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D278" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E278" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="F278" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G278" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A279" t="s">
-        <v>256</v>
-      </c>
-      <c r="B279" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="C279" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D279" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E279" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F279" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G279" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A280" t="s">
-        <v>420</v>
-      </c>
-      <c r="B280" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="C280" s="4">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="D280" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F280" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="G280" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A281" t="s">
-        <v>258</v>
-      </c>
-      <c r="B281" s="4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C281" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D281" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E281" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="F281" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G281" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A282" t="s">
-        <v>260</v>
-      </c>
-      <c r="B282" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C282" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D282" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E282" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F282" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="G282" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A283" t="s">
-        <v>262</v>
-      </c>
-      <c r="B283" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="C283" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="D283" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E283" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F283" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="G283" s="4">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A284" t="s">
-        <v>267</v>
-      </c>
-      <c r="B284" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C284" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D284" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F284" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G284" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A285" t="s">
-        <v>269</v>
-      </c>
-      <c r="B285" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C285" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D285" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E285" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F285" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G285" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A286" t="s">
-        <v>511</v>
-      </c>
-      <c r="B286" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C286" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D286" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E286" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F286" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G286" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A287" t="s">
-        <v>513</v>
-      </c>
-      <c r="B287" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C287" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D287" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F287" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G287" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A288" t="s">
-        <v>514</v>
-      </c>
-      <c r="B288" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="C288" s="4">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D288" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E288" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F288" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G288" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A289" t="s">
-        <v>582</v>
-      </c>
-      <c r="B289" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C289" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D289" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F289" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="G289" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A290" t="s">
-        <v>276</v>
-      </c>
-      <c r="B290" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C290" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D290" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E290" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G290" s="4">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A291" t="s">
-        <v>278</v>
-      </c>
-      <c r="B291" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C291" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D291" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E291" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F291" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G291" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A292" t="s">
-        <v>583</v>
-      </c>
-      <c r="B292" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C292" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D292" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="E292" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F292" s="4">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G292" s="4">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A293" t="s">
-        <v>279</v>
-      </c>
-      <c r="B293" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="C293" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D293" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E293" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F293" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G293" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A294" t="s">
-        <v>280</v>
-      </c>
-      <c r="B294" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C294" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D294" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E294" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="F294" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G294" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A295" t="s">
-        <v>584</v>
-      </c>
-      <c r="B295" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="C295" s="4">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="D295" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E295" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F295" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G295" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A296" t="s">
-        <v>281</v>
-      </c>
-      <c r="B296" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C296" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D296" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E296" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="F296" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G296" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A297" t="s">
-        <v>282</v>
-      </c>
-      <c r="B297" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C297" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D297" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E297" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F297" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G297" s="4">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A298" t="s">
-        <v>585</v>
-      </c>
-      <c r="B298" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="C298" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D298" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E298" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F298" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="G298" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A299" t="s">
-        <v>283</v>
-      </c>
-      <c r="B299" s="4">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="C299" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D299" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E299" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="F299" s="4">
-        <v>0.437</v>
-      </c>
-      <c r="G299" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A300" t="s">
-        <v>520</v>
-      </c>
-      <c r="B300" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C300" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D300" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="E300" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F300" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="G300" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A301" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="C301" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D301" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E301" s="4">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F301" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G301" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A302" t="s">
-        <v>289</v>
-      </c>
-      <c r="B302" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C302" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D302" s="4">
-        <v>0.192</v>
-      </c>
-      <c r="E302" s="4">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F302" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G302" s="4">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A303" t="s">
-        <v>586</v>
-      </c>
-      <c r="B303" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C303" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="D303" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E303" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F303" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="G303" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A304" t="s">
-        <v>587</v>
-      </c>
-      <c r="B304" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C304" s="4">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="D304" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F304" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G304" s="4">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A305" t="s">
-        <v>521</v>
-      </c>
-      <c r="B305" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C305" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D305" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E305" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="F305" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="G305" s="4">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A306" t="s">
-        <v>293</v>
-      </c>
-      <c r="B306" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="C306" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D306" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E306" s="4">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F306" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G306" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A307" t="s">
-        <v>588</v>
-      </c>
-      <c r="B307" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C307" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D307" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E307" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F307" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="G307" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A308" t="s">
-        <v>294</v>
-      </c>
-      <c r="B308" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="C308" s="4">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D308" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E308" s="4">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="F308" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G308" s="4">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A309" t="s">
-        <v>295</v>
-      </c>
-      <c r="B309" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="C309" s="4">
-        <v>0.312</v>
-      </c>
-      <c r="D309" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E309" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F309" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G309" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A310" t="s">
-        <v>296</v>
-      </c>
-      <c r="B310" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C310" s="4">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D310" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E310" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F310" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G310" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A311" t="s">
-        <v>297</v>
-      </c>
-      <c r="B311" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="C311" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D311" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="E311" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F311" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G311" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A312" t="s">
-        <v>298</v>
-      </c>
-      <c r="B312" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C312" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D312" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E312" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="F312" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G312" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A313" t="s">
-        <v>424</v>
-      </c>
-      <c r="B313" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C313" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D313" s="4">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E313" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="F313" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G313" s="4">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A314" t="s">
-        <v>425</v>
-      </c>
-      <c r="B314" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="C314" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D314" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F314" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G314" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A315" t="s">
-        <v>426</v>
-      </c>
-      <c r="B315" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="C315" s="4">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D315" s="4">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="E315" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F315" s="4">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G315" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A316" t="s">
-        <v>427</v>
-      </c>
-      <c r="B316" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C316" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D316" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F316" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="G316" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A317" t="s">
-        <v>302</v>
-      </c>
-      <c r="B317" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C317" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D317" s="4">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="E317" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F317" s="4">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="G317" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A318" t="s">
-        <v>303</v>
-      </c>
-      <c r="B318" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C318" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D318" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E318" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F318" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="G318" s="4">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A319" t="s">
-        <v>304</v>
-      </c>
-      <c r="B319" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C319" s="4">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D319" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E319" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G319" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A320" t="s">
-        <v>305</v>
-      </c>
-      <c r="B320" s="4">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="C320" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D320" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="E320" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F320" s="4">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G320" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A321" t="s">
-        <v>589</v>
-      </c>
-      <c r="B321" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C321" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D321" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E321" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F321" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="G321" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A322" t="s">
-        <v>590</v>
-      </c>
-      <c r="B322" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C322" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="D322" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E322" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F322" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G322" s="4">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A323" t="s">
-        <v>307</v>
-      </c>
-      <c r="B323" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C323" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="D323" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="E323" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="F323" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G323" s="4">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A324" t="s">
-        <v>591</v>
-      </c>
-      <c r="B324" s="4">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C324" s="4">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="D324" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="E324" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F324" s="4">
-        <v>0.156</v>
-      </c>
-      <c r="G324" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A325" t="s">
-        <v>309</v>
-      </c>
-      <c r="B325" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C325" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D325" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E325" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="F325" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G325" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A326" t="s">
-        <v>315</v>
-      </c>
-      <c r="B326" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="C326" s="4">
-        <v>0.373</v>
-      </c>
-      <c r="D326" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E326" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F326" t="s">
-        <v>541</v>
-      </c>
-      <c r="G326" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A327" t="s">
-        <v>316</v>
-      </c>
-      <c r="B327" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="C327" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D327" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E327" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F327" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G327" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A328" t="s">
-        <v>525</v>
-      </c>
-      <c r="B328" s="4">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="C328" s="4">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="D328" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E328" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F328" s="4">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="G328" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A329" t="s">
-        <v>592</v>
-      </c>
-      <c r="B329" s="4">
-        <v>0.252</v>
-      </c>
-      <c r="C329" s="4">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D329" s="4">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E329" t="s">
-        <v>541</v>
-      </c>
-      <c r="F329" s="4">
-        <v>0.252</v>
-      </c>
-      <c r="G329" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A330" t="s">
-        <v>593</v>
-      </c>
-      <c r="B330" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C330" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="D330" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F330" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G330" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A331" t="s">
-        <v>319</v>
-      </c>
-      <c r="B331" s="4">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="C331" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D331" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E331" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F331" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G331" s="4">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A332" t="s">
-        <v>527</v>
-      </c>
-      <c r="B332" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="C332" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D332" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E332" s="4">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F332" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G332" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A333" t="s">
-        <v>594</v>
-      </c>
-      <c r="B333" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="C333" s="4">
-        <v>0.247</v>
-      </c>
-      <c r="D333" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E333" s="4">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F333" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="G333" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A334" t="s">
-        <v>321</v>
-      </c>
-      <c r="B334" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C334" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D334" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E334" s="4">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="F334" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G334" s="4">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A335" t="s">
-        <v>322</v>
-      </c>
-      <c r="B335" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="C335" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="D335" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F335" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="G335" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A336" t="s">
-        <v>323</v>
-      </c>
-      <c r="B336" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C336" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D336" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E336" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F336" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="G336" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A337" t="s">
-        <v>324</v>
-      </c>
-      <c r="B337" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="C337" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="D337" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E337" s="4">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="F337" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G337" s="4">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A338" t="s">
-        <v>325</v>
-      </c>
-      <c r="B338" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C338" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D338" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E338" s="4">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="F338" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G338" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A339" t="s">
-        <v>326</v>
-      </c>
-      <c r="B339" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="C339" s="4">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="D339" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E339" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F339" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="G339" s="4">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A340" t="s">
-        <v>327</v>
-      </c>
-      <c r="B340" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C340" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D340" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E340" s="4">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F340" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G340" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A341" t="s">
-        <v>328</v>
-      </c>
-      <c r="B341" s="4">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="C341" s="4">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D341" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E341" s="4">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F341" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="G341" s="4">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A342" t="s">
-        <v>329</v>
-      </c>
-      <c r="B342" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="C342" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D342" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E342" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F342" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G342" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A343" t="s">
-        <v>330</v>
-      </c>
-      <c r="B343" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="C343" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D343" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E343" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="F343" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G343" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A344" t="s">
-        <v>331</v>
-      </c>
-      <c r="B344" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C344" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D344" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E344" t="s">
-        <v>541</v>
-      </c>
-      <c r="F344" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G344" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A345" t="s">
-        <v>428</v>
-      </c>
-      <c r="B345" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="C345" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D345" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E345" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F345" s="4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G345" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A346" t="s">
-        <v>595</v>
-      </c>
-      <c r="B346" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C346" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D346" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="E346" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="F346" s="4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="G346" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A347" t="s">
-        <v>429</v>
-      </c>
-      <c r="B347" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="C347" s="4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D347" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E347" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F347" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="G347" s="4">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A348" t="s">
-        <v>430</v>
-      </c>
-      <c r="B348" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C348" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D348" s="4">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E348" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F348" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G348" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A349" t="s">
-        <v>431</v>
-      </c>
-      <c r="B349" s="4">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="C349" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D349" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="E349" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F349" s="4">
-        <v>0.189</v>
-      </c>
-      <c r="G349" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A350" t="s">
-        <v>332</v>
-      </c>
-      <c r="B350" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C350" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D350" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E350" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F350" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G350" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A351" t="s">
-        <v>333</v>
-      </c>
-      <c r="B351" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C351" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D351" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="E351" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="F351" s="4">
-        <v>0.314</v>
-      </c>
-      <c r="G351" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A352" t="s">
-        <v>334</v>
-      </c>
-      <c r="B352" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C352" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="D352" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="E352" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="F352" s="4">
-        <v>0.318</v>
-      </c>
-      <c r="G352" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A353" t="s">
-        <v>533</v>
-      </c>
-      <c r="B353" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C353" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D353" s="4">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="E353" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F353" s="4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="G353" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A354" t="s">
-        <v>534</v>
-      </c>
-      <c r="B354" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="C354" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="D354" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="E354" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F354" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="G354" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A355" t="s">
-        <v>337</v>
-      </c>
-      <c r="B355" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="C355" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D355" s="4">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E355" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="F355" s="4">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G355" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A356" t="s">
-        <v>432</v>
-      </c>
-      <c r="B356" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="C356" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D356" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="E356" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="F356" s="4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="G356" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A357" t="s">
-        <v>343</v>
-      </c>
-      <c r="B357" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="C357" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D357" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E357" s="4">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="F357" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G357" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A358" t="s">
-        <v>344</v>
-      </c>
-      <c r="B358" s="4">
-        <v>0.248</v>
-      </c>
-      <c r="C358" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="D358" s="4">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E358" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F358" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="G358" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A359" t="s">
-        <v>345</v>
-      </c>
-      <c r="B359" s="4">
-        <v>0.377</v>
-      </c>
-      <c r="C359" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D359" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E359" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F359" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G359" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A360" t="s">
-        <v>346</v>
-      </c>
-      <c r="B360" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="C360" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E360" t="s">
-        <v>541</v>
-      </c>
-      <c r="F360" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="G360" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A361" t="s">
-        <v>537</v>
-      </c>
-      <c r="B361" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C361" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D361" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F361" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="G361" s="4">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A362" t="s">
-        <v>348</v>
-      </c>
-      <c r="B362" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C362" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="D362" s="4">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="E362" s="4">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F362" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="G362" s="4">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A363" t="s">
-        <v>349</v>
-      </c>
-      <c r="B363" s="4">
-        <v>0.434</v>
-      </c>
-      <c r="C363" s="4">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D363" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E363" s="4">
-        <v>0.434</v>
-      </c>
-      <c r="F363" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G363" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A364" t="s">
-        <v>350</v>
-      </c>
-      <c r="B364" s="4">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="C364" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D364" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="E364" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F364" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="G364" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A365" t="s">
-        <v>538</v>
-      </c>
-      <c r="B365" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C365" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D365" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="E365" t="s">
-        <v>541</v>
-      </c>
-      <c r="F365" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G365" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/teamNamesSR.xlsx
+++ b/teamNamesSR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macia\Documents\Data_Science\Sports_Predictive_Modeling\NCAA_Basketball\NCAA_Basketball_2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8708D-71D1-455E-977D-FB90967B0A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C236925-E1BA-4E70-BA5B-E599CBAB6FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="579">
   <si>
     <t>Abilene Christian</t>
   </si>
@@ -2143,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I333" sqref="I333"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2205,7 +2205,6 @@
         <v>1102</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2222,7 +2221,6 @@
         <v>1103</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -2242,7 +2240,6 @@
         <v>1104</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -2259,7 +2256,6 @@
         <v>1105</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -2276,7 +2272,6 @@
         <v>1106</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2293,7 +2288,6 @@
         <v>1412</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2310,7 +2304,6 @@
         <v>1107</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2327,7 +2320,6 @@
         <v>1108</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2344,7 +2336,6 @@
         <v>1110</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2357,11 +2348,13 @@
       <c r="B12" t="s">
         <v>355</v>
       </c>
+      <c r="C12" t="s">
+        <v>355</v>
+      </c>
       <c r="D12">
         <v>1111</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2378,7 +2371,6 @@
         <v>1112</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2392,13 +2384,12 @@
         <v>356</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="D14">
         <v>1113</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2415,7 +2406,6 @@
         <v>1116</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2432,7 +2422,6 @@
         <v>1117</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -2446,10 +2435,9 @@
         <v>541</v>
       </c>
       <c r="D17">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -2463,10 +2451,9 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -2486,7 +2473,6 @@
         <v>1120</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -2503,7 +2489,6 @@
         <v>1122</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -2520,7 +2505,6 @@
         <v>1123</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -2540,7 +2524,6 @@
         <v>1124</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2557,7 +2540,6 @@
         <v>1125</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2574,7 +2556,6 @@
         <v>1126</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2591,7 +2572,6 @@
         <v>1127</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2608,7 +2588,6 @@
         <v>1129</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2625,7 +2604,6 @@
         <v>1130</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2638,11 +2616,13 @@
       <c r="B28" t="s">
         <v>358</v>
       </c>
+      <c r="C28" t="s">
+        <v>358</v>
+      </c>
       <c r="D28">
         <v>1131</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2659,7 +2639,6 @@
         <v>1132</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2676,7 +2655,6 @@
         <v>1133</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2693,7 +2671,6 @@
         <v>1135</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2710,7 +2687,6 @@
         <v>1136</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2727,7 +2703,6 @@
         <v>1137</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2744,7 +2719,6 @@
         <v>1138</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2757,11 +2731,13 @@
       <c r="B35" t="s">
         <v>33</v>
       </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
       <c r="D35">
         <v>1139</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="N35" s="4"/>
@@ -2773,11 +2749,13 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
       <c r="D36">
         <v>1140</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -2794,7 +2772,6 @@
         <v>1142</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2811,7 +2788,6 @@
         <v>1167</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2828,7 +2804,6 @@
         <v>1168</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2845,7 +2820,6 @@
         <v>1169</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -2858,11 +2832,13 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
       <c r="D41">
         <v>1143</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2879,7 +2855,6 @@
         <v>1465</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2896,7 +2871,6 @@
         <v>1144</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2909,11 +2883,13 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
       <c r="D44">
         <v>1145</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2930,7 +2906,6 @@
         <v>1146</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2947,7 +2922,6 @@
         <v>1148</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2964,7 +2938,6 @@
         <v>1141</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -2981,7 +2954,6 @@
         <v>1149</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2998,7 +2970,6 @@
         <v>1150</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -3015,7 +2986,6 @@
         <v>1151</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -3032,7 +3002,6 @@
         <v>1152</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -3052,7 +3021,6 @@
         <v>1153</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -3069,7 +3037,6 @@
         <v>1154</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -3086,7 +3053,6 @@
         <v>1155</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -3103,7 +3069,6 @@
         <v>1156</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -3120,7 +3085,6 @@
         <v>1157</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -3137,7 +3101,6 @@
         <v>1159</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -3154,7 +3117,6 @@
         <v>1158</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -3174,7 +3136,6 @@
         <v>1160</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -3187,11 +3148,13 @@
       <c r="B60" t="s">
         <v>363</v>
       </c>
+      <c r="C60" t="s">
+        <v>363</v>
+      </c>
       <c r="D60">
         <v>1161</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -3208,7 +3171,6 @@
         <v>1162</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -3225,7 +3187,6 @@
         <v>1164</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -3242,7 +3203,6 @@
         <v>1165</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -3262,7 +3222,6 @@
         <v>1166</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -3279,7 +3238,6 @@
         <v>1171</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -3296,7 +3254,6 @@
         <v>1172</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -3309,11 +3266,13 @@
       <c r="B67" t="s">
         <v>65</v>
       </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
       <c r="D67">
         <v>1173</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -3326,11 +3285,13 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
       <c r="D68">
         <v>1174</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -3347,7 +3308,6 @@
         <v>1175</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -3364,7 +3324,6 @@
         <v>1176</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -3384,7 +3343,6 @@
         <v>1177</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -3401,7 +3359,6 @@
         <v>1178</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -3418,7 +3375,6 @@
         <v>1179</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -3435,7 +3391,6 @@
         <v>1180</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -3448,11 +3403,13 @@
       <c r="B75" t="s">
         <v>73</v>
       </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
       <c r="D75">
         <v>1181</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -3465,11 +3422,13 @@
       <c r="B76" t="s">
         <v>74</v>
       </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
       <c r="D76">
         <v>1182</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -3482,11 +3441,13 @@
       <c r="B77" t="s">
         <v>367</v>
       </c>
+      <c r="C77" t="s">
+        <v>367</v>
+      </c>
       <c r="D77">
         <v>1187</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -3502,7 +3463,6 @@
         <v>1183</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -3518,7 +3478,6 @@
         <v>1184</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -3535,7 +3494,6 @@
         <v>1185</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -3548,11 +3506,13 @@
       <c r="B81" t="s">
         <v>466</v>
       </c>
+      <c r="C81" t="s">
+        <v>466</v>
+      </c>
       <c r="D81">
         <v>1186</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -3569,7 +3529,6 @@
         <v>1189</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -3586,7 +3545,6 @@
         <v>1190</v>
       </c>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -3603,7 +3561,6 @@
         <v>1191</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -3620,7 +3577,6 @@
         <v>1193</v>
       </c>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -3637,7 +3593,6 @@
         <v>1192</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -3654,7 +3609,6 @@
         <v>1196</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -3671,7 +3625,6 @@
         <v>1197</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -3688,7 +3641,6 @@
         <v>1194</v>
       </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -3704,7 +3656,6 @@
         <v>1195</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -3717,11 +3668,13 @@
       <c r="B91" t="s">
         <v>372</v>
       </c>
+      <c r="C91" t="s">
+        <v>372</v>
+      </c>
       <c r="D91">
         <v>1198</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -3738,7 +3691,6 @@
         <v>1199</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -3751,11 +3703,13 @@
       <c r="B93" t="s">
         <v>91</v>
       </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
       <c r="D93">
         <v>1200</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -3772,7 +3726,6 @@
         <v>1201</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -3789,7 +3742,6 @@
         <v>1202</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -3806,7 +3758,6 @@
         <v>1205</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -3819,11 +3770,13 @@
       <c r="B97" t="s">
         <v>95</v>
       </c>
+      <c r="C97" t="s">
+        <v>95</v>
+      </c>
       <c r="D97">
         <v>1206</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -3840,7 +3793,6 @@
         <v>1203</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -3853,11 +3805,13 @@
       <c r="B99" t="s">
         <v>97</v>
       </c>
+      <c r="C99" t="s">
+        <v>97</v>
+      </c>
       <c r="D99">
         <v>1207</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -3874,7 +3828,6 @@
         <v>1208</v>
       </c>
       <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -3891,7 +3844,6 @@
         <v>1204</v>
       </c>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -3904,11 +3856,13 @@
       <c r="B102" t="s">
         <v>375</v>
       </c>
+      <c r="C102" t="s">
+        <v>375</v>
+      </c>
       <c r="D102">
         <v>1209</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -3925,7 +3879,6 @@
         <v>1210</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -3942,7 +3895,6 @@
         <v>1211</v>
       </c>
       <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -3959,7 +3911,6 @@
         <v>1212</v>
       </c>
       <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -3976,7 +3927,6 @@
         <v>1213</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -3993,7 +3943,6 @@
         <v>1453</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -4010,7 +3959,6 @@
         <v>1214</v>
       </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -4027,7 +3975,6 @@
         <v>1216</v>
       </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -4044,7 +3991,6 @@
         <v>1217</v>
       </c>
       <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="N110" s="4"/>
@@ -4060,7 +4006,6 @@
         <v>1218</v>
       </c>
       <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -4077,7 +4022,6 @@
         <v>1219</v>
       </c>
       <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -4094,7 +4038,6 @@
         <v>1220</v>
       </c>
       <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -4111,7 +4054,6 @@
         <v>1221</v>
       </c>
       <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -4131,7 +4073,6 @@
         <v>1222</v>
       </c>
       <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -4148,7 +4089,6 @@
         <v>1223</v>
       </c>
       <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -4165,7 +4105,6 @@
         <v>1224</v>
       </c>
       <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
@@ -4182,7 +4121,6 @@
         <v>1225</v>
       </c>
       <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
@@ -4199,7 +4137,6 @@
         <v>1226</v>
       </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -4219,7 +4156,6 @@
         <v>1228</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
@@ -4236,7 +4172,6 @@
         <v>1229</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
@@ -4253,7 +4188,6 @@
         <v>1230</v>
       </c>
       <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -4273,7 +4207,6 @@
         <v>1231</v>
       </c>
       <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -4290,7 +4223,6 @@
         <v>1232</v>
       </c>
       <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
@@ -4307,7 +4239,6 @@
         <v>1233</v>
       </c>
       <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -4324,7 +4255,6 @@
         <v>1234</v>
       </c>
       <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -4338,13 +4268,12 @@
         <v>476</v>
       </c>
       <c r="C127" t="s">
-        <v>125</v>
+        <v>476</v>
       </c>
       <c r="D127">
         <v>1235</v>
       </c>
       <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -4361,7 +4290,6 @@
         <v>1237</v>
       </c>
       <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -4378,7 +4306,6 @@
         <v>1238</v>
       </c>
       <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -4395,7 +4322,6 @@
         <v>1239</v>
       </c>
       <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -4412,7 +4338,6 @@
         <v>1240</v>
       </c>
       <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -4429,7 +4354,6 @@
         <v>1241</v>
       </c>
       <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -4449,7 +4373,6 @@
         <v>1242</v>
       </c>
       <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -4466,7 +4389,6 @@
         <v>1243</v>
       </c>
       <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -4480,13 +4402,12 @@
         <v>382</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="D135">
         <v>1244</v>
       </c>
       <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -4503,7 +4424,6 @@
         <v>1245</v>
       </c>
       <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
@@ -4516,11 +4436,13 @@
       <c r="B137" t="s">
         <v>135</v>
       </c>
+      <c r="C137" t="s">
+        <v>135</v>
+      </c>
       <c r="D137">
         <v>1246</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -4537,7 +4459,6 @@
         <v>1247</v>
       </c>
       <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
@@ -4554,7 +4475,6 @@
         <v>1248</v>
       </c>
       <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -4571,7 +4491,6 @@
         <v>1249</v>
       </c>
       <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -4588,7 +4507,6 @@
         <v>1250</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
@@ -4608,7 +4526,6 @@
         <v>1251</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -4625,7 +4542,6 @@
         <v>1252</v>
       </c>
       <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
@@ -4641,7 +4557,6 @@
         <v>1114</v>
       </c>
       <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -4657,7 +4572,6 @@
         <v>1254</v>
       </c>
       <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -4674,7 +4588,6 @@
         <v>1253</v>
       </c>
       <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -4691,7 +4604,6 @@
         <v>1255</v>
       </c>
       <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -4708,7 +4620,6 @@
         <v>1418</v>
       </c>
       <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
@@ -4725,7 +4636,6 @@
         <v>1256</v>
       </c>
       <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -4742,7 +4652,6 @@
         <v>1419</v>
       </c>
       <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
@@ -4762,7 +4671,6 @@
         <v>1257</v>
       </c>
       <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
@@ -4779,7 +4687,6 @@
         <v>1260</v>
       </c>
       <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
@@ -4796,7 +4703,6 @@
         <v>1259</v>
       </c>
       <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -4809,11 +4715,13 @@
       <c r="B154" t="s">
         <v>383</v>
       </c>
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
       <c r="D154">
         <v>1258</v>
       </c>
       <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -4833,7 +4741,6 @@
         <v>1261</v>
       </c>
       <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -4850,7 +4757,6 @@
         <v>1263</v>
       </c>
       <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
@@ -4867,7 +4773,6 @@
         <v>1264</v>
       </c>
       <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
@@ -4884,7 +4789,6 @@
         <v>1265</v>
       </c>
       <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
@@ -4904,7 +4808,6 @@
         <v>1266</v>
       </c>
       <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
@@ -4921,7 +4824,6 @@
         <v>1267</v>
       </c>
       <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
@@ -4941,7 +4843,6 @@
         <v>1268</v>
       </c>
       <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
@@ -4958,7 +4859,6 @@
         <v>1271</v>
       </c>
       <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="N162" s="4"/>
@@ -4974,7 +4874,6 @@
         <v>1270</v>
       </c>
       <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
@@ -4994,7 +4893,6 @@
         <v>1272</v>
       </c>
       <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
@@ -5011,7 +4909,6 @@
         <v>1273</v>
       </c>
       <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
@@ -5028,7 +4925,6 @@
         <v>1274</v>
       </c>
       <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
@@ -5045,7 +4941,6 @@
         <v>1275</v>
       </c>
       <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
@@ -5065,7 +4960,6 @@
         <v>1276</v>
       </c>
       <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
@@ -5078,11 +4972,13 @@
       <c r="B169" t="s">
         <v>386</v>
       </c>
+      <c r="C169" t="s">
+        <v>386</v>
+      </c>
       <c r="D169">
         <v>1277</v>
       </c>
       <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
@@ -5099,7 +4995,6 @@
         <v>1292</v>
       </c>
       <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
@@ -5116,7 +5011,6 @@
         <v>1454</v>
       </c>
       <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
@@ -5136,7 +5030,6 @@
         <v>1278</v>
       </c>
       <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
@@ -5149,11 +5042,13 @@
       <c r="B173" t="s">
         <v>490</v>
       </c>
+      <c r="C173" t="s">
+        <v>490</v>
+      </c>
       <c r="D173">
         <v>1280</v>
       </c>
       <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
@@ -5170,7 +5065,6 @@
         <v>1290</v>
       </c>
       <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
@@ -5190,7 +5084,6 @@
         <v>1281</v>
       </c>
       <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
@@ -5207,7 +5100,6 @@
         <v>1283</v>
       </c>
       <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
@@ -5224,7 +5116,6 @@
         <v>1284</v>
       </c>
       <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
@@ -5241,7 +5132,6 @@
         <v>1285</v>
       </c>
       <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
@@ -5258,7 +5148,6 @@
         <v>1286</v>
       </c>
       <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
@@ -5275,7 +5164,6 @@
         <v>1287</v>
       </c>
       <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
@@ -5292,7 +5180,6 @@
         <v>1288</v>
       </c>
       <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
@@ -5309,7 +5196,6 @@
         <v>1291</v>
       </c>
       <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
@@ -5325,7 +5211,6 @@
         <v>1293</v>
       </c>
       <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
       <c r="K183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
@@ -5341,7 +5226,6 @@
         <v>1298</v>
       </c>
       <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
@@ -5358,7 +5242,6 @@
         <v>1301</v>
       </c>
       <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
@@ -5371,11 +5254,13 @@
       <c r="B186" t="s">
         <v>184</v>
       </c>
+      <c r="C186" t="s">
+        <v>184</v>
+      </c>
       <c r="D186">
         <v>1304</v>
       </c>
       <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
@@ -5392,7 +5277,6 @@
         <v>1305</v>
       </c>
       <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
@@ -5409,7 +5293,6 @@
         <v>1306</v>
       </c>
       <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
@@ -5426,7 +5309,6 @@
         <v>1307</v>
       </c>
       <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
@@ -5443,7 +5325,6 @@
         <v>1308</v>
       </c>
       <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
@@ -5460,7 +5341,6 @@
         <v>1309</v>
       </c>
       <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
@@ -5477,7 +5357,6 @@
         <v>1310</v>
       </c>
       <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
@@ -5494,7 +5373,6 @@
         <v>1311</v>
       </c>
       <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
@@ -5511,7 +5389,6 @@
         <v>1312</v>
       </c>
       <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
@@ -5528,7 +5405,6 @@
         <v>1313</v>
       </c>
       <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
@@ -5545,7 +5421,6 @@
         <v>1466</v>
       </c>
       <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
@@ -5562,7 +5437,6 @@
         <v>1299</v>
       </c>
       <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
@@ -5579,7 +5453,6 @@
         <v>1300</v>
       </c>
       <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
@@ -5596,7 +5469,6 @@
         <v>1315</v>
       </c>
       <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
@@ -5613,7 +5485,6 @@
         <v>1295</v>
       </c>
       <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
@@ -5630,7 +5501,6 @@
         <v>1316</v>
       </c>
       <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
@@ -5647,7 +5517,6 @@
         <v>1317</v>
       </c>
       <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
@@ -5664,7 +5533,6 @@
         <v>1318</v>
       </c>
       <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
@@ -5681,7 +5549,6 @@
         <v>1319</v>
       </c>
       <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
@@ -5698,7 +5565,6 @@
         <v>1294</v>
       </c>
       <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
@@ -5715,7 +5581,6 @@
         <v>1296</v>
       </c>
       <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
@@ -5732,7 +5597,6 @@
         <v>1320</v>
       </c>
       <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
@@ -5749,7 +5613,6 @@
         <v>1297</v>
       </c>
       <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
@@ -5762,11 +5625,13 @@
       <c r="B209" t="s">
         <v>207</v>
       </c>
+      <c r="C209" t="s">
+        <v>207</v>
+      </c>
       <c r="D209">
         <v>1321</v>
       </c>
       <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
@@ -5783,7 +5648,6 @@
         <v>1322</v>
       </c>
       <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
@@ -5803,7 +5667,6 @@
         <v>1323</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
@@ -5816,11 +5679,13 @@
       <c r="B212" t="s">
         <v>210</v>
       </c>
+      <c r="C212" t="s">
+        <v>210</v>
+      </c>
       <c r="D212">
         <v>1324</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
@@ -5837,7 +5702,6 @@
         <v>1325</v>
       </c>
       <c r="I213" s="4"/>
-      <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
@@ -5851,13 +5715,12 @@
         <v>502</v>
       </c>
       <c r="C214" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="D214">
         <v>1326</v>
       </c>
       <c r="I214" s="4"/>
-      <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
@@ -5874,7 +5737,6 @@
         <v>1328</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="4"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
@@ -5887,11 +5749,13 @@
       <c r="B216" t="s">
         <v>406</v>
       </c>
+      <c r="C216" t="s">
+        <v>406</v>
+      </c>
       <c r="D216">
         <v>1329</v>
       </c>
       <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
@@ -5908,7 +5772,6 @@
         <v>1330</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
@@ -5925,7 +5788,6 @@
         <v>1279</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
@@ -5942,7 +5804,6 @@
         <v>1303</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
@@ -5959,7 +5820,6 @@
         <v>1331</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
@@ -5979,7 +5839,6 @@
         <v>1332</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
@@ -5996,7 +5855,6 @@
         <v>1333</v>
       </c>
       <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
@@ -6013,7 +5871,6 @@
         <v>1334</v>
       </c>
       <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
@@ -6030,7 +5887,6 @@
         <v>1335</v>
       </c>
       <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
@@ -6044,13 +5900,12 @@
         <v>504</v>
       </c>
       <c r="C225" t="s">
-        <v>223</v>
+        <v>504</v>
       </c>
       <c r="D225">
         <v>1336</v>
       </c>
       <c r="I225" s="4"/>
-      <c r="J225" s="4"/>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
@@ -6067,7 +5922,6 @@
         <v>1337</v>
       </c>
       <c r="I226" s="4"/>
-      <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
@@ -6084,7 +5938,6 @@
         <v>1338</v>
       </c>
       <c r="I227" s="4"/>
-      <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
@@ -6096,11 +5949,13 @@
       <c r="B228" t="s">
         <v>226</v>
       </c>
+      <c r="C228" t="s">
+        <v>226</v>
+      </c>
       <c r="D228">
         <v>1339</v>
       </c>
       <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
@@ -6117,7 +5972,6 @@
         <v>1340</v>
       </c>
       <c r="I229" s="4"/>
-      <c r="J229" s="4"/>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
@@ -6134,7 +5988,6 @@
         <v>1341</v>
       </c>
       <c r="I230" s="4"/>
-      <c r="J230" s="4"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
@@ -6151,7 +6004,6 @@
         <v>1342</v>
       </c>
       <c r="I231" s="4"/>
-      <c r="J231" s="4"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
@@ -6168,7 +6020,6 @@
         <v>1343</v>
       </c>
       <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
@@ -6181,11 +6032,13 @@
       <c r="B233" t="s">
         <v>230</v>
       </c>
+      <c r="C233" t="s">
+        <v>230</v>
+      </c>
       <c r="D233">
         <v>1344</v>
       </c>
       <c r="I233" s="4"/>
-      <c r="J233" s="4"/>
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
@@ -6198,11 +6051,13 @@
       <c r="B234" t="s">
         <v>231</v>
       </c>
+      <c r="C234" t="s">
+        <v>231</v>
+      </c>
       <c r="D234">
         <v>1345</v>
       </c>
       <c r="I234" s="4"/>
-      <c r="J234" s="4"/>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
@@ -6219,7 +6074,6 @@
         <v>1236</v>
       </c>
       <c r="I235" s="4"/>
-      <c r="J235" s="4"/>
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
@@ -6236,7 +6090,6 @@
         <v>1346</v>
       </c>
       <c r="I236" s="4"/>
-      <c r="J236" s="4"/>
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
@@ -6253,7 +6106,6 @@
         <v>1347</v>
       </c>
       <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
       <c r="K237" s="4"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
@@ -6265,11 +6117,13 @@
       <c r="B238" t="s">
         <v>235</v>
       </c>
+      <c r="C238" t="s">
+        <v>235</v>
+      </c>
       <c r="D238">
         <v>1348</v>
       </c>
       <c r="I238" s="4"/>
-      <c r="J238" s="4"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
@@ -6286,7 +6140,6 @@
         <v>1349</v>
       </c>
       <c r="I239" s="4"/>
-      <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
@@ -6303,7 +6156,6 @@
         <v>1350</v>
       </c>
       <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
@@ -6320,7 +6172,6 @@
         <v>1351</v>
       </c>
       <c r="I241" s="4"/>
-      <c r="J241" s="4"/>
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
@@ -6337,7 +6188,6 @@
         <v>1352</v>
       </c>
       <c r="I242" s="4"/>
-      <c r="J242" s="4"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
@@ -6350,11 +6200,13 @@
       <c r="B243" t="s">
         <v>240</v>
       </c>
+      <c r="C243" t="s">
+        <v>240</v>
+      </c>
       <c r="D243">
         <v>1353</v>
       </c>
       <c r="I243" s="4"/>
-      <c r="J243" s="4"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
@@ -6367,11 +6219,13 @@
       <c r="B244" t="s">
         <v>566</v>
       </c>
+      <c r="C244" t="s">
+        <v>566</v>
+      </c>
       <c r="D244">
         <v>1170</v>
       </c>
       <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
@@ -6388,7 +6242,6 @@
         <v>1357</v>
       </c>
       <c r="I245" s="4"/>
-      <c r="J245" s="4"/>
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
@@ -6405,7 +6258,6 @@
         <v>1384</v>
       </c>
       <c r="I246" s="4"/>
-      <c r="J246" s="4"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
@@ -6425,7 +6277,6 @@
         <v>1387</v>
       </c>
       <c r="I247" s="4"/>
-      <c r="J247" s="4"/>
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
@@ -6442,7 +6293,6 @@
         <v>1388</v>
       </c>
       <c r="I248" s="4"/>
-      <c r="J248" s="4"/>
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
@@ -6459,7 +6309,6 @@
         <v>1358</v>
       </c>
       <c r="I249" s="4"/>
-      <c r="J249" s="4"/>
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
@@ -6472,11 +6321,13 @@
       <c r="B250" t="s">
         <v>247</v>
       </c>
+      <c r="C250" t="s">
+        <v>247</v>
+      </c>
       <c r="D250">
         <v>1359</v>
       </c>
       <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
@@ -6493,7 +6344,6 @@
         <v>1360</v>
       </c>
       <c r="I251" s="4"/>
-      <c r="J251" s="4"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
@@ -6510,7 +6360,6 @@
         <v>1361</v>
       </c>
       <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
@@ -6523,11 +6372,13 @@
       <c r="B253" t="s">
         <v>250</v>
       </c>
+      <c r="C253" t="s">
+        <v>250</v>
+      </c>
       <c r="D253">
         <v>1362</v>
       </c>
       <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
@@ -6544,7 +6395,6 @@
         <v>1363</v>
       </c>
       <c r="I254" s="4"/>
-      <c r="J254" s="4"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
@@ -6561,7 +6411,6 @@
         <v>1365</v>
       </c>
       <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
@@ -6578,7 +6427,6 @@
         <v>1366</v>
       </c>
       <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
@@ -6595,7 +6443,6 @@
         <v>1370</v>
       </c>
       <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
@@ -6608,11 +6455,13 @@
       <c r="B258" t="s">
         <v>255</v>
       </c>
+      <c r="C258" t="s">
+        <v>255</v>
+      </c>
       <c r="D258">
         <v>1371</v>
       </c>
       <c r="I258" s="4"/>
-      <c r="J258" s="4"/>
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
@@ -6625,11 +6474,13 @@
       <c r="B259" t="s">
         <v>256</v>
       </c>
+      <c r="C259" t="s">
+        <v>256</v>
+      </c>
       <c r="D259">
         <v>1373</v>
       </c>
       <c r="I259" s="4"/>
-      <c r="J259" s="4"/>
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
       <c r="M259" s="4"/>
@@ -6646,7 +6497,6 @@
         <v>1188</v>
       </c>
       <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
@@ -6659,11 +6509,13 @@
       <c r="B261" t="s">
         <v>258</v>
       </c>
+      <c r="C261" t="s">
+        <v>258</v>
+      </c>
       <c r="D261">
         <v>1374</v>
       </c>
       <c r="I261" s="4"/>
-      <c r="J261" s="4"/>
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
@@ -6680,7 +6532,6 @@
         <v>1375</v>
       </c>
       <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
@@ -6697,7 +6548,6 @@
         <v>1376</v>
       </c>
       <c r="I263" s="4"/>
-      <c r="J263" s="4"/>
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
       <c r="M263" s="4"/>
@@ -6714,7 +6564,6 @@
         <v>1354</v>
       </c>
       <c r="I264" s="4"/>
-      <c r="J264" s="4"/>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
@@ -6731,7 +6580,6 @@
         <v>1377</v>
       </c>
       <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
       <c r="K265" s="4"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
@@ -6747,7 +6595,6 @@
         <v>1355</v>
       </c>
       <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
       <c r="M266" s="4"/>
@@ -6764,7 +6611,6 @@
         <v>1378</v>
       </c>
       <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
       <c r="M267" s="4"/>
@@ -6781,7 +6627,6 @@
         <v>1369</v>
       </c>
       <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
       <c r="N268" s="4"/>
@@ -6797,7 +6642,6 @@
         <v>1368</v>
       </c>
       <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
       <c r="K269" s="4"/>
       <c r="L269" s="4"/>
       <c r="M269" s="4"/>
@@ -6814,7 +6658,6 @@
         <v>1380</v>
       </c>
       <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
       <c r="M270" s="4"/>
@@ -6831,7 +6674,6 @@
         <v>1356</v>
       </c>
       <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
       <c r="M271" s="4"/>
@@ -6848,7 +6690,6 @@
         <v>1379</v>
       </c>
       <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
@@ -6865,7 +6706,6 @@
         <v>1381</v>
       </c>
       <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
       <c r="M273" s="4"/>
@@ -6882,7 +6722,6 @@
         <v>1382</v>
       </c>
       <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>
@@ -6899,7 +6738,6 @@
         <v>1383</v>
       </c>
       <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
       <c r="M275" s="4"/>
@@ -6916,7 +6754,6 @@
         <v>1385</v>
       </c>
       <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
       <c r="M276" s="4"/>
@@ -6933,7 +6770,6 @@
         <v>1386</v>
       </c>
       <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
@@ -6950,7 +6786,6 @@
         <v>1389</v>
       </c>
       <c r="I278" s="4"/>
-      <c r="J278" s="4"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
       <c r="M278" s="4"/>
@@ -6963,11 +6798,13 @@
       <c r="B279" t="s">
         <v>276</v>
       </c>
+      <c r="C279" t="s">
+        <v>276</v>
+      </c>
       <c r="D279">
         <v>1390</v>
       </c>
       <c r="I279" s="4"/>
-      <c r="J279" s="4"/>
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
       <c r="M279" s="4"/>
@@ -6984,7 +6821,6 @@
         <v>1372</v>
       </c>
       <c r="I280" s="4"/>
-      <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
       <c r="M280" s="4"/>
@@ -7001,7 +6837,6 @@
         <v>1391</v>
       </c>
       <c r="I281" s="4"/>
-      <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
       <c r="M281" s="4"/>
@@ -7018,7 +6853,6 @@
         <v>1392</v>
       </c>
       <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
@@ -7031,11 +6865,13 @@
       <c r="B283" t="s">
         <v>280</v>
       </c>
+      <c r="C283" t="s">
+        <v>280</v>
+      </c>
       <c r="D283">
         <v>1393</v>
       </c>
       <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
@@ -7048,11 +6884,13 @@
       <c r="B284" t="s">
         <v>281</v>
       </c>
+      <c r="C284" t="s">
+        <v>281</v>
+      </c>
       <c r="D284">
         <v>1395</v>
       </c>
       <c r="I284" s="4"/>
-      <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
       <c r="M284" s="4"/>
@@ -7069,7 +6907,6 @@
         <v>1396</v>
       </c>
       <c r="I285" s="4"/>
-      <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
@@ -7082,11 +6919,13 @@
       <c r="B286" t="s">
         <v>283</v>
       </c>
+      <c r="C286" t="s">
+        <v>283</v>
+      </c>
       <c r="D286">
         <v>1397</v>
       </c>
       <c r="I286" s="4"/>
-      <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
@@ -7103,7 +6942,6 @@
         <v>1398</v>
       </c>
       <c r="I287" s="4"/>
-      <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
@@ -7120,7 +6958,6 @@
         <v>1399</v>
       </c>
       <c r="I288" s="4"/>
-      <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
@@ -7137,7 +6974,6 @@
         <v>1400</v>
       </c>
       <c r="I289" s="4"/>
-      <c r="J289" s="4"/>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
@@ -7150,11 +6986,13 @@
       <c r="B290" t="s">
         <v>289</v>
       </c>
+      <c r="C290" t="s">
+        <v>289</v>
+      </c>
       <c r="D290">
         <v>1401</v>
       </c>
       <c r="I290" s="4"/>
-      <c r="J290" s="4"/>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
@@ -7171,7 +7009,6 @@
         <v>1394</v>
       </c>
       <c r="I291" s="4"/>
-      <c r="J291" s="4"/>
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
       <c r="M291" s="4"/>
@@ -7188,7 +7025,6 @@
         <v>1411</v>
       </c>
       <c r="I292" s="4"/>
-      <c r="J292" s="4"/>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
@@ -7205,7 +7041,6 @@
         <v>1402</v>
       </c>
       <c r="I293" s="4"/>
-      <c r="J293" s="4"/>
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
@@ -7218,11 +7053,13 @@
       <c r="B294" t="s">
         <v>293</v>
       </c>
+      <c r="C294" t="s">
+        <v>293</v>
+      </c>
       <c r="D294">
         <v>1403</v>
       </c>
       <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
@@ -7239,7 +7076,6 @@
         <v>1426</v>
       </c>
       <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
@@ -7256,7 +7092,6 @@
         <v>1410</v>
       </c>
       <c r="I296" s="4"/>
-      <c r="J296" s="4"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
@@ -7273,7 +7108,6 @@
         <v>1405</v>
       </c>
       <c r="I297" s="4"/>
-      <c r="J297" s="4"/>
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
       <c r="M297" s="4"/>
@@ -7290,7 +7124,6 @@
         <v>1406</v>
       </c>
       <c r="I298" s="4"/>
-      <c r="J298" s="4"/>
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
@@ -7307,7 +7140,6 @@
         <v>1407</v>
       </c>
       <c r="I299" s="4"/>
-      <c r="J299" s="4"/>
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
       <c r="M299" s="4"/>
@@ -7324,7 +7156,6 @@
         <v>1408</v>
       </c>
       <c r="I300" s="4"/>
-      <c r="J300" s="4"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
@@ -7341,7 +7172,6 @@
         <v>1409</v>
       </c>
       <c r="I301" s="4"/>
-      <c r="J301" s="4"/>
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
       <c r="M301" s="4"/>
@@ -7358,7 +7188,6 @@
         <v>1413</v>
       </c>
       <c r="I302" s="4"/>
-      <c r="J302" s="4"/>
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
       <c r="M302" s="4"/>
@@ -7375,7 +7204,6 @@
         <v>1416</v>
       </c>
       <c r="I303" s="4"/>
-      <c r="J303" s="4"/>
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
       <c r="M303" s="4"/>
@@ -7392,7 +7220,6 @@
         <v>1414</v>
       </c>
       <c r="I304" s="4"/>
-      <c r="J304" s="4"/>
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
@@ -7412,7 +7239,6 @@
         <v>1417</v>
       </c>
       <c r="I305" s="4"/>
-      <c r="J305" s="4"/>
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
       <c r="M305" s="4"/>
@@ -7432,7 +7258,6 @@
         <v>1163</v>
       </c>
       <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
@@ -7449,7 +7274,6 @@
         <v>1415</v>
       </c>
       <c r="I307" s="4"/>
-      <c r="J307" s="4"/>
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
       <c r="M307" s="4"/>
@@ -7466,7 +7290,6 @@
         <v>1364</v>
       </c>
       <c r="I308" s="4"/>
-      <c r="J308" s="4"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
       <c r="M308" s="4"/>
@@ -7483,7 +7306,6 @@
         <v>1227</v>
       </c>
       <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
       <c r="M309" s="4"/>
@@ -7500,7 +7322,6 @@
         <v>1269</v>
       </c>
       <c r="I310" s="4"/>
-      <c r="J310" s="4"/>
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
       <c r="M310" s="4"/>
@@ -7517,7 +7338,6 @@
         <v>1262</v>
       </c>
       <c r="I311" s="4"/>
-      <c r="J311" s="4"/>
       <c r="K311" s="4"/>
       <c r="L311" s="4"/>
       <c r="M311" s="4"/>
@@ -7534,7 +7354,6 @@
         <v>1420</v>
       </c>
       <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
       <c r="M312" s="4"/>
@@ -7551,7 +7370,6 @@
         <v>1282</v>
       </c>
       <c r="I313" s="4"/>
-      <c r="J313" s="4"/>
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
       <c r="M313" s="4"/>
@@ -7571,7 +7389,6 @@
         <v>1314</v>
       </c>
       <c r="I314" s="4"/>
-      <c r="J314" s="4"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
@@ -7588,7 +7405,6 @@
         <v>1421</v>
       </c>
       <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
@@ -7605,7 +7421,6 @@
         <v>1422</v>
       </c>
       <c r="I316" s="4"/>
-      <c r="J316" s="4"/>
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
       <c r="M316" s="4"/>
@@ -7622,7 +7437,6 @@
         <v>1423</v>
       </c>
       <c r="I317" s="4"/>
-      <c r="J317" s="4"/>
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
       <c r="M317" s="4"/>
@@ -7642,7 +7456,6 @@
         <v>1424</v>
       </c>
       <c r="I318" s="4"/>
-      <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
@@ -7662,7 +7475,6 @@
         <v>1425</v>
       </c>
       <c r="I319" s="4"/>
-      <c r="J319" s="4"/>
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
       <c r="M319" s="4"/>
@@ -7679,7 +7491,6 @@
         <v>1367</v>
       </c>
       <c r="I320" s="4"/>
-      <c r="J320" s="4"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
@@ -7692,11 +7503,13 @@
       <c r="B321" t="s">
         <v>319</v>
       </c>
+      <c r="C321" t="s">
+        <v>319</v>
+      </c>
       <c r="D321">
         <v>1428</v>
       </c>
       <c r="I321" s="4"/>
-      <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
       <c r="M321" s="4"/>
@@ -7713,7 +7526,6 @@
         <v>1429</v>
       </c>
       <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
@@ -7730,7 +7542,6 @@
         <v>1430</v>
       </c>
       <c r="I323" s="4"/>
-      <c r="J323" s="4"/>
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
       <c r="M323" s="4"/>
@@ -7747,7 +7558,6 @@
         <v>1431</v>
       </c>
       <c r="I324" s="4"/>
-      <c r="J324" s="4"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
       <c r="M324" s="4"/>
@@ -7764,7 +7574,6 @@
         <v>1404</v>
       </c>
       <c r="I325" s="4"/>
-      <c r="J325" s="4"/>
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
       <c r="M325" s="4"/>
@@ -7781,7 +7590,6 @@
         <v>1427</v>
       </c>
       <c r="I326" s="4"/>
-      <c r="J326" s="4"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
       <c r="N326" s="4"/>
@@ -7797,7 +7605,6 @@
         <v>1434</v>
       </c>
       <c r="I327" s="4"/>
-      <c r="J327" s="4"/>
       <c r="K327" s="4"/>
       <c r="L327" s="4"/>
       <c r="M327" s="4"/>
@@ -7817,7 +7624,6 @@
         <v>1435</v>
       </c>
       <c r="I328" s="4"/>
-      <c r="J328" s="4"/>
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
       <c r="M328" s="4"/>
@@ -7830,11 +7636,13 @@
       <c r="B329" t="s">
         <v>326</v>
       </c>
+      <c r="C329" t="s">
+        <v>326</v>
+      </c>
       <c r="D329">
         <v>1433</v>
       </c>
       <c r="I329" s="4"/>
-      <c r="J329" s="4"/>
       <c r="K329" s="4"/>
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
@@ -7850,7 +7658,6 @@
         <v>1436</v>
       </c>
       <c r="I330" s="4"/>
-      <c r="J330" s="4"/>
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
       <c r="M330" s="4"/>
@@ -7863,11 +7670,13 @@
       <c r="B331" t="s">
         <v>328</v>
       </c>
+      <c r="C331" t="s">
+        <v>328</v>
+      </c>
       <c r="D331">
         <v>1437</v>
       </c>
       <c r="I331" s="4"/>
-      <c r="J331" s="4"/>
       <c r="K331" s="4"/>
       <c r="L331" s="4"/>
       <c r="M331" s="4"/>
@@ -7880,11 +7689,13 @@
       <c r="B332" t="s">
         <v>329</v>
       </c>
+      <c r="C332" t="s">
+        <v>329</v>
+      </c>
       <c r="D332">
         <v>1438</v>
       </c>
       <c r="I332" s="4"/>
-      <c r="J332" s="4"/>
       <c r="K332" s="4"/>
       <c r="L332" s="4"/>
       <c r="M332" s="4"/>
@@ -7901,7 +7712,6 @@
         <v>1439</v>
       </c>
       <c r="I333" s="4"/>
-      <c r="J333" s="4"/>
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
       <c r="M333" s="4"/>
@@ -7914,11 +7724,13 @@
       <c r="B334" t="s">
         <v>331</v>
       </c>
+      <c r="C334" t="s">
+        <v>331</v>
+      </c>
       <c r="D334">
         <v>1440</v>
       </c>
       <c r="I334" s="4"/>
-      <c r="J334" s="4"/>
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
       <c r="M334" s="4"/>
@@ -7935,7 +7747,6 @@
         <v>1447</v>
       </c>
       <c r="I335" s="4"/>
-      <c r="J335" s="4"/>
       <c r="K335" s="4"/>
       <c r="L335" s="4"/>
       <c r="M335" s="4"/>
@@ -7952,7 +7763,6 @@
         <v>1448</v>
       </c>
       <c r="I336" s="4"/>
-      <c r="J336" s="4"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
       <c r="M336" s="4"/>
@@ -7972,7 +7782,6 @@
         <v>1449</v>
       </c>
       <c r="I337" s="4"/>
-      <c r="J337" s="4"/>
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
       <c r="M337" s="4"/>
@@ -7985,11 +7794,13 @@
       <c r="B338" t="s">
         <v>533</v>
       </c>
+      <c r="C338" t="s">
+        <v>533</v>
+      </c>
       <c r="D338">
         <v>1450</v>
       </c>
       <c r="I338" s="4"/>
-      <c r="J338" s="4"/>
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
       <c r="M338" s="4"/>
@@ -8006,7 +7817,6 @@
         <v>1451</v>
       </c>
       <c r="I339" s="4"/>
-      <c r="J339" s="4"/>
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
       <c r="M339" s="4"/>
@@ -8026,7 +7836,6 @@
         <v>1452</v>
       </c>
       <c r="I340" s="4"/>
-      <c r="J340" s="4"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
       <c r="M340" s="4"/>
@@ -8043,7 +7852,6 @@
         <v>1441</v>
       </c>
       <c r="I341" s="4"/>
-      <c r="J341" s="4"/>
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
       <c r="M341" s="4"/>
@@ -8060,7 +7868,6 @@
         <v>1442</v>
       </c>
       <c r="I342" s="4"/>
-      <c r="J342" s="4"/>
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
       <c r="M342" s="4"/>
@@ -8077,7 +7884,6 @@
         <v>1443</v>
       </c>
       <c r="I343" s="4"/>
-      <c r="J343" s="4"/>
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
       <c r="M343" s="4"/>
@@ -8094,7 +7900,6 @@
         <v>1444</v>
       </c>
       <c r="I344" s="4"/>
-      <c r="J344" s="4"/>
       <c r="K344" s="4"/>
       <c r="M344" s="4"/>
       <c r="N344" s="4"/>
@@ -8106,11 +7911,13 @@
       <c r="B345" t="s">
         <v>432</v>
       </c>
+      <c r="C345" t="s">
+        <v>432</v>
+      </c>
       <c r="D345">
         <v>1455</v>
       </c>
       <c r="I345" s="4"/>
-      <c r="J345" s="4"/>
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
       <c r="M345" s="4"/>
@@ -8127,7 +7934,6 @@
         <v>1456</v>
       </c>
       <c r="I346" s="4"/>
-      <c r="J346" s="4"/>
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
@@ -8223,6 +8029,9 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
+        <v>349</v>
+      </c>
+      <c r="C352" t="s">
         <v>349</v>
       </c>
       <c r="D352">
@@ -8361,6 +8170,9 @@
       <sortCondition ref="A1:A354"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G86">
+    <sortCondition ref="G2:G86"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="B127" r:id="rId1" display="https://www.teamrankings.com/ncaa-basketball/team/iowa-state-cyclones" xr:uid="{2DECB488-6859-4A45-92AE-136E4F3CCFBF}"/>
   </hyperlinks>
@@ -8373,7 +8185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBA0962-9B57-4E6C-9E9A-EFA20B1432D9}">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
